--- a/Burndown.xlsx
+++ b/Burndown.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sprint 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Product Backlog" sheetId="4" r:id="rId1"/>
+    <sheet name="Sprint 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sprint 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sprint 3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
   <si>
     <t>SCRUM 1</t>
   </si>
@@ -27,9 +28,6 @@
     <t>SCRUM 3</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Initial</t>
   </si>
   <si>
@@ -37,13 +35,253 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>User launches program and sees a title/introduction screen/message – Easy</t>
+  </si>
+  <si>
+    <t>Create 9x5 board – Easy</t>
+  </si>
+  <si>
+    <t>Make sure initial game board is valid – Easy</t>
+  </si>
+  <si>
+    <t>Draw pieces – Easy</t>
+  </si>
+  <si>
+    <t>Create button/function to start and restart game – Mid</t>
+  </si>
+  <si>
+    <t>User input box – Easy</t>
+  </si>
+  <si>
+    <t>User enters a move by inputting board positions – Mid</t>
+  </si>
+  <si>
+    <t>Display whose turn it is – Easy</t>
+  </si>
+  <si>
+    <t>Check if maximum number of moves has been reached – Mid</t>
+  </si>
+  <si>
+    <t>Computer can randomly select a valid move – Mid</t>
+  </si>
+  <si>
+    <t>Board evaluation function determines winner/loser – Easy</t>
+  </si>
+  <si>
+    <t>Allow diagonal and forward movement – Hard</t>
+  </si>
+  <si>
+    <t>Disallow pieces to move to a spot with a piece in it – Mid</t>
+  </si>
+  <si>
+    <t>Captures 2 different ways – Hard</t>
+  </si>
+  <si>
+    <t>Allow to move only if cannot capture – Hard</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Sprint 1 Backlog</t>
+  </si>
+  <si>
+    <t>Total Hours</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>User launches program and sees a title/introduction screen/message</t>
+  </si>
+  <si>
+    <t>Allow user to select a timed game or non-timed game</t>
+  </si>
+  <si>
+    <t>Create 9x5 board</t>
+  </si>
+  <si>
+    <t>*Change board size</t>
+  </si>
+  <si>
+    <t>Make sure initial game board is valid</t>
+  </si>
+  <si>
+    <t>Draw pieces</t>
+  </si>
+  <si>
+    <t>Create button/function to start and restart game</t>
+  </si>
+  <si>
+    <t>User input box</t>
+  </si>
+  <si>
+    <t>User enters a move by inputting board positions</t>
+  </si>
+  <si>
+    <t>User enters a move by defined click-and-move process</t>
+  </si>
+  <si>
+    <t>Maintain board state</t>
+  </si>
+  <si>
+    <t>User sees a display of the current board state</t>
+  </si>
+  <si>
+    <t>Track whose turn it is</t>
+  </si>
+  <si>
+    <t>Display whose turn it is</t>
+  </si>
+  <si>
+    <t>Check to see if both players still have pieces.</t>
+  </si>
+  <si>
+    <t>Keep track of pieces that are gone</t>
+  </si>
+  <si>
+    <t>Display removed pieces on the side of the board</t>
+  </si>
+  <si>
+    <t>Check to see if player has any moves to perform.  If they don’t, they lose</t>
+  </si>
+  <si>
+    <t>Check if maximum number of moves has been reached.</t>
+  </si>
+  <si>
+    <t>User gets response of invalid if proposing an invalid move</t>
+  </si>
+  <si>
+    <t>Computer identifies all valid moves</t>
+  </si>
+  <si>
+    <t>Computer can randomly select a valid move</t>
+  </si>
+  <si>
+    <t>Board evaluation function determines winner/loser</t>
+  </si>
+  <si>
+    <t>Highlight the pieces that have valid moves available</t>
+  </si>
+  <si>
+    <t>*Show all valid moves for a selected piece</t>
+  </si>
+  <si>
+    <t>Only allow users to effect pieces they control</t>
+  </si>
+  <si>
+    <t>Allow diagonal and forward movement</t>
+  </si>
+  <si>
+    <t>Disallow pieces to move to a spot with a piece in it</t>
+  </si>
+  <si>
+    <t>Track where pieces have been, they are not allows to be in the same space</t>
+  </si>
+  <si>
+    <t>Track multiple jumps</t>
+  </si>
+  <si>
+    <t>Captures 2 different ways</t>
+  </si>
+  <si>
+    <t>If a capture move can be made, it must be made</t>
+  </si>
+  <si>
+    <t>Allow to move only if cannot capture</t>
+  </si>
+  <si>
+    <t>Allow user to pass turn</t>
+  </si>
+  <si>
+    <t>*Allow user to undo a move</t>
+  </si>
+  <si>
+    <t>Min/max tree used for AI</t>
+  </si>
+  <si>
+    <t>Computer looks ahead one move in tree</t>
+  </si>
+  <si>
+    <t>Alpha-beta pruning implemented at one level</t>
+  </si>
+  <si>
+    <t>Alpha-beta pruning implemented across all levels</t>
+  </si>
+  <si>
+    <t>Iterative deepening implemented</t>
+  </si>
+  <si>
+    <t>Make a board that can be accessed remotely</t>
+  </si>
+  <si>
+    <t>Make an AI that can be played against remotely</t>
+  </si>
+  <si>
+    <t>Timer for AI</t>
+  </si>
+  <si>
+    <t>Timer for User</t>
+  </si>
+  <si>
+    <t>Visual for AI’s last move</t>
+  </si>
+  <si>
+    <t>Visual for user’s last move</t>
+  </si>
+  <si>
+    <t>Display count down timer</t>
+  </si>
+  <si>
+    <t>Program AI with staggles</t>
+  </si>
+  <si>
+    <t>Difficulty settings on the AI</t>
+  </si>
+  <si>
+    <t>Make funny names for the AI difficulty settings</t>
+  </si>
+  <si>
+    <t>*Make a chat function</t>
+  </si>
+  <si>
+    <t>*Make AI taunt in chat</t>
+  </si>
+  <si>
+    <t>Product Backlog</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Track whose turn it is – Easy</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3 Backlog</t>
+  </si>
+  <si>
+    <t>Sprint 2 Backlog</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,16 +289,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,13 +320,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,18 +408,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1'!$C$3</c:f>
+              <c:f>'Sprint 1'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time</c:v>
+                  <c:v>Sprint 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint 1'!$D$2:$G$2</c:f>
+              <c:f>'Sprint 1'!$F$2:$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -149,21 +439,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1'!$D$3:$G$3</c:f>
+              <c:f>'Sprint 1'!$F$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -177,11 +458,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="39256448"/>
-        <c:axId val="39257984"/>
+        <c:axId val="158239360"/>
+        <c:axId val="158249344"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="39256448"/>
+        <c:axId val="158239360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -190,7 +471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39257984"/>
+        <c:crossAx val="158249344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -198,7 +479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39257984"/>
+        <c:axId val="158249344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -209,7 +490,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39256448"/>
+        <c:crossAx val="158239360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -235,16 +516,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>576262</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -553,165 +834,1398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1">
-        <v>41338</v>
-      </c>
-      <c r="E1" s="1">
-        <v>41339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="12">
+        <f>IF(C2="Easy",1,IF(C2="Mid",2,IF(C2="Hard",4,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5">
+        <f>IF(C3="Easy",1,IF(C3="Mid",2,IF(C3="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="12">
+        <f>IF(C4="Easy",1,IF(C4="Mid",2,IF(C4="Hard",4,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5">
+        <f>IF(C5="Easy",1,IF(C5="Mid",2,IF(C5="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="12">
+        <f>IF(C6="Easy",1,IF(C6="Mid",2,IF(C6="Hard",4,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="12">
+        <f>IF(C7="Easy",1,IF(C7="Mid",2,IF(C7="Hard",4,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="12">
+        <f>IF(C8="Easy",1,IF(C8="Mid",2,IF(C8="Hard",4,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="12">
+        <f>IF(C9="Easy",1,IF(C9="Mid",2,IF(C9="Hard",4,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="12">
+        <f>IF(C10="Easy",1,IF(C10="Mid",2,IF(C10="Hard",4,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5">
+        <f>IF(C11="Easy",1,IF(C11="Mid",2,IF(C11="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5">
+        <f>IF(C12="Easy",1,IF(C12="Mid",2,IF(C12="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5">
+        <f>IF(C13="Easy",1,IF(C13="Mid",2,IF(C13="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="12">
+        <f>IF(C14="Easy",1,IF(C14="Mid",2,IF(C14="Hard",4,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="12">
+        <f>IF(C15="Easy",1,IF(C15="Mid",2,IF(C15="Hard",4,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5">
+        <f>IF(C16="Easy",1,IF(C16="Mid",2,IF(C16="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5">
+        <f>IF(C17="Easy",1,IF(C17="Mid",2,IF(C17="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="5">
+        <f>IF(C18="Easy",1,IF(C18="Mid",2,IF(C18="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="5">
+        <f>IF(C19="Easy",1,IF(C19="Mid",2,IF(C19="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="11">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="12">
+        <f>IF(C20="Easy",1,IF(C20="Mid",2,IF(C20="Hard",4,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5">
+        <f>IF(C21="Easy",1,IF(C21="Mid",2,IF(C21="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5">
+        <f>IF(C22="Easy",1,IF(C22="Mid",2,IF(C22="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="12">
+        <f>IF(C23="Easy",1,IF(C23="Mid",2,IF(C23="Hard",4,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="11">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="12">
+        <f>IF(C24="Easy",1,IF(C24="Mid",2,IF(C24="Hard",4,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5">
+        <f>IF(C25="Easy",1,IF(C25="Mid",2,IF(C25="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5">
+        <f>IF(C26="Easy",1,IF(C26="Mid",2,IF(C26="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="5">
+        <f>IF(C27="Easy",1,IF(C27="Mid",2,IF(C27="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="12">
+        <f>IF(C28="Easy",1,IF(C28="Mid",2,IF(C28="Hard",4,0)))</f>
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="12">
+        <f>IF(C29="Easy",1,IF(C29="Mid",2,IF(C29="Hard",4,0)))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="5">
+        <f>IF(C30="Easy",1,IF(C30="Mid",2,IF(C30="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="5">
+        <f>IF(C31="Easy",1,IF(C31="Mid",2,IF(C31="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="11">
+        <v>1</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="12">
+        <f t="shared" ref="D32:D53" si="0">IF(C32="Easy",1,IF(C32="Mid",2,IF(C32="Hard",4,0)))</f>
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>28</v>
-      </c>
-      <c r="E3">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="11">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="12">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f>SUM(A3:A16)</f>
-        <v>28</v>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="10">
+        <f>SUM(D2:D53)</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="69.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="9">
+        <v>41338</v>
+      </c>
+      <c r="G1" s="9">
+        <v>41339</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7">
+        <f>IF(B2="Easy",1,IF(B2="Mid",2,IF(B2="Hard",4,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7">
+        <f>IF(B3="Easy",1,IF(B3="Mid",2,IF(B3="Hard",4,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <f>C18</f>
+        <v>30</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7">
+        <f>IF(B4="Easy",1,IF(B4="Mid",2,IF(B4="Hard",4,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f>F3-I3</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7">
+        <f>IF(B5="Easy",1,IF(B5="Mid",2,IF(B5="Hard",4,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="7">
+        <f>IF(B6="Easy",1,IF(B6="Mid",2,IF(B6="Hard",4,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7">
+        <f>IF(B7="Easy",1,IF(B7="Mid",2,IF(B7="Hard",4,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="7">
+        <f>IF(B8="Easy",1,IF(B8="Mid",2,IF(B8="Hard",4,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="7">
+        <f>IF(B9="Easy",1,IF(B9="Mid",2,IF(B9="Hard",4,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7">
+        <f>IF(B10="Easy",1,IF(B10="Mid",2,IF(B10="Hard",4,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="7">
+        <f>IF(B11="Easy",1,IF(B11="Mid",2,IF(B11="Hard",4,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="7">
+        <f>IF(B12="Easy",1,IF(B12="Mid",2,IF(B12="Hard",4,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="7">
+        <f>IF(B13="Easy",1,IF(B13="Mid",2,IF(B13="Hard",4,0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="7">
+        <f>IF(B14="Easy",1,IF(B14="Mid",2,IF(B14="Hard",4,0)))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="7">
+        <f>IF(B15="Easy",1,IF(B15="Mid",2,IF(B15="Hard",4,0)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" ref="C16:C17" si="0">IF(B16="Easy",1,IF(B16="Mid",2,IF(B16="Hard",4,0)))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3">
+        <f>SUM(C2:C17)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="69.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7">
+        <f>IF(B2="Easy",1,IF(B2="Mid",2,IF(B2="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7">
+        <f>IF(B3="Easy",1,IF(B3="Mid",2,IF(B3="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="5">
+        <f>C18</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7">
+        <f>IF(B4="Easy",1,IF(B4="Mid",2,IF(B4="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>F3-I3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7">
+        <f>IF(B5="Easy",1,IF(B5="Mid",2,IF(B5="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7">
+        <f>IF(B6="Easy",1,IF(B6="Mid",2,IF(B6="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7">
+        <f>IF(B7="Easy",1,IF(B7="Mid",2,IF(B7="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7">
+        <f>IF(B8="Easy",1,IF(B8="Mid",2,IF(B8="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7">
+        <f>IF(B9="Easy",1,IF(B9="Mid",2,IF(B9="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7">
+        <f>IF(B10="Easy",1,IF(B10="Mid",2,IF(B10="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7">
+        <f>IF(B11="Easy",1,IF(B11="Mid",2,IF(B11="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7">
+        <f>IF(B12="Easy",1,IF(B12="Mid",2,IF(B12="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7">
+        <f>IF(B13="Easy",1,IF(B13="Mid",2,IF(B13="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7">
+        <f>IF(B14="Easy",1,IF(B14="Mid",2,IF(B14="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7">
+        <f>IF(B15="Easy",1,IF(B15="Mid",2,IF(B15="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7">
+        <f t="shared" ref="C16:C17" si="0">IF(B16="Easy",1,IF(B16="Mid",2,IF(B16="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3">
+        <f>SUM(C2:C17)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7">
+        <f>IF(B2="Easy",1,IF(B2="Mid",2,IF(B2="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7">
+        <f>IF(B3="Easy",1,IF(B3="Mid",2,IF(B3="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="5">
+        <f>C18</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7">
+        <f>IF(B4="Easy",1,IF(B4="Mid",2,IF(B4="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>F3-I3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7">
+        <f>IF(B5="Easy",1,IF(B5="Mid",2,IF(B5="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7">
+        <f>IF(B6="Easy",1,IF(B6="Mid",2,IF(B6="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7">
+        <f>IF(B7="Easy",1,IF(B7="Mid",2,IF(B7="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7">
+        <f>IF(B8="Easy",1,IF(B8="Mid",2,IF(B8="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7">
+        <f>IF(B9="Easy",1,IF(B9="Mid",2,IF(B9="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7">
+        <f>IF(B10="Easy",1,IF(B10="Mid",2,IF(B10="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7">
+        <f>IF(B11="Easy",1,IF(B11="Mid",2,IF(B11="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7">
+        <f>IF(B12="Easy",1,IF(B12="Mid",2,IF(B12="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7">
+        <f>IF(B13="Easy",1,IF(B13="Mid",2,IF(B13="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7">
+        <f>IF(B14="Easy",1,IF(B14="Mid",2,IF(B14="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7">
+        <f>IF(B15="Easy",1,IF(B15="Mid",2,IF(B15="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7">
+        <f t="shared" ref="C16:C17" si="0">IF(B16="Easy",1,IF(B16="Mid",2,IF(B16="Hard",4,0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3">
+        <f>SUM(C2:C17)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Burndown.xlsx
+++ b/Burndown.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
   <si>
     <t>SCRUM 1</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>Sprint 2 Backlog</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
   </si>
 </sst>
 </file>
@@ -458,11 +461,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="158239360"/>
-        <c:axId val="158249344"/>
+        <c:axId val="157883776"/>
+        <c:axId val="157889664"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="158239360"/>
+        <c:axId val="157883776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -471,7 +474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158249344"/>
+        <c:crossAx val="157889664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -479,7 +482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158249344"/>
+        <c:axId val="157889664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -490,7 +493,273 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158239360"/>
+        <c:crossAx val="157883776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 2'!$F$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Initial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SCRUM 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCRUM 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SCRUM 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$F$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="180577408"/>
+        <c:axId val="180578944"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="180577408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180578944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="180578944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180577408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 3'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 3'!$F$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Initial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SCRUM 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCRUM 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SCRUM 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$F$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="173543424"/>
+        <c:axId val="173544960"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="173543424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173544960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="173544960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173543424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -526,6 +795,76 @@
       <xdr:colOff>461962</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -836,7 +1175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -870,7 +1209,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="12">
-        <f>IF(C2="Easy",1,IF(C2="Mid",2,IF(C2="Hard",4,0)))</f>
+        <f t="shared" ref="D2:D31" si="0">IF(C2="Easy",1,IF(C2="Mid",2,IF(C2="Hard",4,0)))</f>
         <v>1</v>
       </c>
     </row>
@@ -881,7 +1220,7 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="5">
-        <f>IF(C3="Easy",1,IF(C3="Mid",2,IF(C3="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -896,7 +1235,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="12">
-        <f>IF(C4="Easy",1,IF(C4="Mid",2,IF(C4="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -907,7 +1246,7 @@
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="5">
-        <f>IF(C5="Easy",1,IF(C5="Mid",2,IF(C5="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -922,7 +1261,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="12">
-        <f>IF(C6="Easy",1,IF(C6="Mid",2,IF(C6="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -937,7 +1276,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="12">
-        <f>IF(C7="Easy",1,IF(C7="Mid",2,IF(C7="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -952,7 +1291,7 @@
         <v>81</v>
       </c>
       <c r="D8" s="12">
-        <f>IF(C8="Easy",1,IF(C8="Mid",2,IF(C8="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -967,7 +1306,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="12">
-        <f>IF(C9="Easy",1,IF(C9="Mid",2,IF(C9="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -982,7 +1321,7 @@
         <v>81</v>
       </c>
       <c r="D10" s="12">
-        <f>IF(C10="Easy",1,IF(C10="Mid",2,IF(C10="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -993,7 +1332,7 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="5">
-        <f>IF(C11="Easy",1,IF(C11="Mid",2,IF(C11="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1004,7 +1343,7 @@
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="5">
-        <f>IF(C12="Easy",1,IF(C12="Mid",2,IF(C12="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1015,7 +1354,7 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="5">
-        <f>IF(C13="Easy",1,IF(C13="Mid",2,IF(C13="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1030,7 +1369,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="12">
-        <f>IF(C14="Easy",1,IF(C14="Mid",2,IF(C14="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1045,7 +1384,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="12">
-        <f>IF(C15="Easy",1,IF(C15="Mid",2,IF(C15="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1056,7 +1395,7 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="5">
-        <f>IF(C16="Easy",1,IF(C16="Mid",2,IF(C16="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1067,7 +1406,7 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="5">
-        <f>IF(C17="Easy",1,IF(C17="Mid",2,IF(C17="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1078,7 +1417,7 @@
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="5">
-        <f>IF(C18="Easy",1,IF(C18="Mid",2,IF(C18="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1089,7 +1428,7 @@
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="5">
-        <f>IF(C19="Easy",1,IF(C19="Mid",2,IF(C19="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1104,7 +1443,7 @@
         <v>81</v>
       </c>
       <c r="D20" s="12">
-        <f>IF(C20="Easy",1,IF(C20="Mid",2,IF(C20="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1115,7 +1454,7 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5">
-        <f>IF(C21="Easy",1,IF(C21="Mid",2,IF(C21="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1126,7 +1465,7 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="5">
-        <f>IF(C22="Easy",1,IF(C22="Mid",2,IF(C22="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1141,7 +1480,7 @@
         <v>81</v>
       </c>
       <c r="D23" s="12">
-        <f>IF(C23="Easy",1,IF(C23="Mid",2,IF(C23="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1156,7 +1495,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="12">
-        <f>IF(C24="Easy",1,IF(C24="Mid",2,IF(C24="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1167,7 +1506,7 @@
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="5">
-        <f>IF(C25="Easy",1,IF(C25="Mid",2,IF(C25="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1178,7 +1517,7 @@
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="5">
-        <f>IF(C26="Easy",1,IF(C26="Mid",2,IF(C26="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1189,7 +1528,7 @@
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="5">
-        <f>IF(C27="Easy",1,IF(C27="Mid",2,IF(C27="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1204,7 +1543,7 @@
         <v>82</v>
       </c>
       <c r="D28" s="12">
-        <f>IF(C28="Easy",1,IF(C28="Mid",2,IF(C28="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1219,7 +1558,7 @@
         <v>81</v>
       </c>
       <c r="D29" s="12">
-        <f>IF(C29="Easy",1,IF(C29="Mid",2,IF(C29="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1230,7 +1569,7 @@
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="5">
-        <f>IF(C30="Easy",1,IF(C30="Mid",2,IF(C30="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1241,7 +1580,7 @@
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="5">
-        <f>IF(C31="Easy",1,IF(C31="Mid",2,IF(C31="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1256,7 +1595,7 @@
         <v>82</v>
       </c>
       <c r="D32" s="12">
-        <f t="shared" ref="D32:D53" si="0">IF(C32="Easy",1,IF(C32="Mid",2,IF(C32="Hard",4,0)))</f>
+        <f t="shared" ref="D32:D53" si="1">IF(C32="Easy",1,IF(C32="Mid",2,IF(C32="Hard",4,0)))</f>
         <v>4</v>
       </c>
     </row>
@@ -1267,7 +1606,7 @@
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1282,7 +1621,7 @@
         <v>82</v>
       </c>
       <c r="D34" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1293,7 +1632,7 @@
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1304,7 +1643,7 @@
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1315,7 +1654,7 @@
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1326,7 +1665,7 @@
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1337,7 +1676,7 @@
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1348,7 +1687,7 @@
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1359,7 +1698,7 @@
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1370,7 +1709,7 @@
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1381,7 +1720,7 @@
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1392,7 +1731,7 @@
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1403,7 +1742,7 @@
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1414,7 +1753,7 @@
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1425,7 +1764,7 @@
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1436,7 +1775,7 @@
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1447,7 +1786,7 @@
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1458,7 +1797,7 @@
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1469,7 +1808,7 @@
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1480,7 +1819,7 @@
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1491,7 +1830,7 @@
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1510,9 +1849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1553,7 +1890,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="7">
-        <f>IF(B2="Easy",1,IF(B2="Mid",2,IF(B2="Hard",4,0)))</f>
+        <f t="shared" ref="C2:C15" si="0">IF(B2="Easy",1,IF(B2="Mid",2,IF(B2="Hard",4,0)))</f>
         <v>1</v>
       </c>
       <c r="E2" s="5"/>
@@ -1578,7 +1915,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="7">
-        <f>IF(B3="Easy",1,IF(B3="Mid",2,IF(B3="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -1600,7 +1937,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="7">
-        <f>IF(B4="Easy",1,IF(B4="Mid",2,IF(B4="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I4">
@@ -1616,7 +1953,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="7">
-        <f>IF(B5="Easy",1,IF(B5="Mid",2,IF(B5="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1628,7 +1965,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="7">
-        <f>IF(B6="Easy",1,IF(B6="Mid",2,IF(B6="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1640,7 +1977,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="7">
-        <f>IF(B7="Easy",1,IF(B7="Mid",2,IF(B7="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1652,7 +1989,7 @@
         <v>81</v>
       </c>
       <c r="C8" s="7">
-        <f>IF(B8="Easy",1,IF(B8="Mid",2,IF(B8="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1664,7 +2001,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="7">
-        <f>IF(B9="Easy",1,IF(B9="Mid",2,IF(B9="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1676,7 +2013,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="7">
-        <f>IF(B10="Easy",1,IF(B10="Mid",2,IF(B10="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1688,7 +2025,7 @@
         <v>81</v>
       </c>
       <c r="C11" s="7">
-        <f>IF(B11="Easy",1,IF(B11="Mid",2,IF(B11="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1700,7 +2037,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="7">
-        <f>IF(B12="Easy",1,IF(B12="Mid",2,IF(B12="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1712,7 +2049,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="7">
-        <f>IF(B13="Easy",1,IF(B13="Mid",2,IF(B13="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1724,7 +2061,7 @@
         <v>82</v>
       </c>
       <c r="C14" s="7">
-        <f>IF(B14="Easy",1,IF(B14="Mid",2,IF(B14="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1736,7 +2073,7 @@
         <v>81</v>
       </c>
       <c r="C15" s="7">
-        <f>IF(B15="Easy",1,IF(B15="Mid",2,IF(B15="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1748,7 +2085,7 @@
         <v>82</v>
       </c>
       <c r="C16" s="7">
-        <f t="shared" ref="C16:C17" si="0">IF(B16="Easy",1,IF(B16="Mid",2,IF(B16="Hard",4,0)))</f>
+        <f t="shared" ref="C16:C17" si="1">IF(B16="Easy",1,IF(B16="Mid",2,IF(B16="Hard",4,0)))</f>
         <v>4</v>
       </c>
     </row>
@@ -1760,7 +2097,7 @@
         <v>82</v>
       </c>
       <c r="C17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1867,7 +2204,7 @@
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
-        <f>IF(B2="Easy",1,IF(B2="Mid",2,IF(B2="Hard",4,0)))</f>
+        <f t="shared" ref="C2:C15" si="0">IF(B2="Easy",1,IF(B2="Mid",2,IF(B2="Hard",4,0)))</f>
         <v>0</v>
       </c>
       <c r="E2" s="5"/>
@@ -1888,7 +2225,7 @@
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7">
-        <f>IF(B3="Easy",1,IF(B3="Mid",2,IF(B3="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -1906,7 +2243,7 @@
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7">
-        <f>IF(B4="Easy",1,IF(B4="Mid",2,IF(B4="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4">
@@ -1918,7 +2255,7 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7">
-        <f>IF(B5="Easy",1,IF(B5="Mid",2,IF(B5="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1926,7 +2263,7 @@
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7">
-        <f>IF(B6="Easy",1,IF(B6="Mid",2,IF(B6="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1934,7 +2271,7 @@
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7">
-        <f>IF(B7="Easy",1,IF(B7="Mid",2,IF(B7="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1942,7 +2279,7 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7">
-        <f>IF(B8="Easy",1,IF(B8="Mid",2,IF(B8="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1950,7 +2287,7 @@
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7">
-        <f>IF(B9="Easy",1,IF(B9="Mid",2,IF(B9="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1958,7 +2295,7 @@
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
-        <f>IF(B10="Easy",1,IF(B10="Mid",2,IF(B10="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1966,7 +2303,7 @@
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7">
-        <f>IF(B11="Easy",1,IF(B11="Mid",2,IF(B11="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1974,7 +2311,7 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7">
-        <f>IF(B12="Easy",1,IF(B12="Mid",2,IF(B12="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1982,7 +2319,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7">
-        <f>IF(B13="Easy",1,IF(B13="Mid",2,IF(B13="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1990,7 +2327,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7">
-        <f>IF(B14="Easy",1,IF(B14="Mid",2,IF(B14="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1998,7 +2335,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7">
-        <f>IF(B15="Easy",1,IF(B15="Mid",2,IF(B15="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2006,7 +2343,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7">
-        <f t="shared" ref="C16:C17" si="0">IF(B16="Easy",1,IF(B16="Mid",2,IF(B16="Hard",4,0)))</f>
+        <f t="shared" ref="C16:C17" si="1">IF(B16="Easy",1,IF(B16="Mid",2,IF(B16="Hard",4,0)))</f>
         <v>0</v>
       </c>
     </row>
@@ -2014,7 +2351,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2029,6 +2366,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2065,7 +2403,7 @@
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
-        <f>IF(B2="Easy",1,IF(B2="Mid",2,IF(B2="Hard",4,0)))</f>
+        <f t="shared" ref="C2:C15" si="0">IF(B2="Easy",1,IF(B2="Mid",2,IF(B2="Hard",4,0)))</f>
         <v>0</v>
       </c>
       <c r="E2" s="5"/>
@@ -2086,11 +2424,11 @@
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7">
-        <f>IF(B3="Easy",1,IF(B3="Mid",2,IF(B3="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F3" s="5">
         <f>C18</f>
@@ -2104,7 +2442,7 @@
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7">
-        <f>IF(B4="Easy",1,IF(B4="Mid",2,IF(B4="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4">
@@ -2116,7 +2454,7 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7">
-        <f>IF(B5="Easy",1,IF(B5="Mid",2,IF(B5="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2124,7 +2462,7 @@
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7">
-        <f>IF(B6="Easy",1,IF(B6="Mid",2,IF(B6="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2132,7 +2470,7 @@
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7">
-        <f>IF(B7="Easy",1,IF(B7="Mid",2,IF(B7="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2140,7 +2478,7 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7">
-        <f>IF(B8="Easy",1,IF(B8="Mid",2,IF(B8="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2148,7 +2486,7 @@
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7">
-        <f>IF(B9="Easy",1,IF(B9="Mid",2,IF(B9="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2156,7 +2494,7 @@
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
-        <f>IF(B10="Easy",1,IF(B10="Mid",2,IF(B10="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2164,7 +2502,7 @@
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7">
-        <f>IF(B11="Easy",1,IF(B11="Mid",2,IF(B11="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2172,7 +2510,7 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7">
-        <f>IF(B12="Easy",1,IF(B12="Mid",2,IF(B12="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2180,7 +2518,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7">
-        <f>IF(B13="Easy",1,IF(B13="Mid",2,IF(B13="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2188,7 +2526,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7">
-        <f>IF(B14="Easy",1,IF(B14="Mid",2,IF(B14="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2196,7 +2534,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7">
-        <f>IF(B15="Easy",1,IF(B15="Mid",2,IF(B15="Hard",4,0)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2204,7 +2542,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7">
-        <f t="shared" ref="C16:C17" si="0">IF(B16="Easy",1,IF(B16="Mid",2,IF(B16="Hard",4,0)))</f>
+        <f t="shared" ref="C16:C17" si="1">IF(B16="Easy",1,IF(B16="Mid",2,IF(B16="Hard",4,0)))</f>
         <v>0</v>
       </c>
     </row>
@@ -2212,7 +2550,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2227,5 +2565,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>